--- a/biology/Botanique/Phebalium/Phebalium.xlsx
+++ b/biology/Botanique/Phebalium/Phebalium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phebalium est un genre de buisson de la famille des Rutaceae endémique d'Australie[1]. Un certain nombre d'espèces autrefois incluses dans ce genre ont été transférées dans les genres Leionema et Nematolepis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phebalium est un genre de buisson de la famille des Rutaceae endémique d'Australie. Un certain nombre d'espèces autrefois incluses dans ce genre ont été transférées dans les genres Leionema et Nematolepis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phebalium ambiguum C.A.Gardner
 Phebalium appressum Paul G.Wilson
